--- a/uniaxial-loading-unloading/time_strain_stress/0d05_2d0.xlsx
+++ b/uniaxial-loading-unloading/time_strain_stress/0d05_2d0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
   <si>
     <t>Time_s</t>
   </si>
@@ -91,783 +91,783 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>1.3272727272727274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.5</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0249999999999999</v>
+        <v>1.026</v>
       </c>
       <c r="C3" s="0">
-        <v>7.0248609574000875</v>
+        <v>7.2097482517482527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="B4" s="0">
-        <v>1.05</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>11.119175757575755</v>
+        <v>11.262413821472645</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="B5" s="0">
-        <v>1.075</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>14.435259025032938</v>
+        <v>14.555547511312222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="B6" s="0">
-        <v>1.1000000000000001</v>
+        <v>1.101</v>
       </c>
       <c r="C6" s="0">
-        <v>17.273142907334208</v>
+        <v>17.378752776635128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="B7" s="0">
-        <v>1.125</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="C7" s="0">
-        <v>19.793004303908649</v>
+        <v>19.890835870012346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="B8" s="0">
-        <v>1.1499999999999999</v>
+        <v>1.151</v>
       </c>
       <c r="C8" s="0">
-        <v>22.035658498023711</v>
+        <v>22.122445084327438</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="B9" s="0">
-        <v>1.175</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="C9" s="0">
-        <v>24.082151251646902</v>
+        <v>24.154300287947354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>4</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="B10" s="0">
-        <v>1.2</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="C10" s="0">
-        <v>25.926892929292919</v>
+        <v>26.001813245577956</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>4.5</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="B11" s="0">
-        <v>1.2250000000000001</v>
+        <v>1.226</v>
       </c>
       <c r="C11" s="0">
-        <v>27.633843829600348</v>
+        <v>27.700929658576719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>5</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="B12" s="0">
-        <v>1.25</v>
+        <v>1.2509999999999999</v>
       </c>
       <c r="C12" s="0">
-        <v>29.212235573122523</v>
+        <v>29.269827231591943</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>5.5</v>
+        <v>5.5199999999999996</v>
       </c>
       <c r="B13" s="0">
-        <v>1.2749999999999999</v>
+        <v>1.276</v>
       </c>
       <c r="C13" s="0">
-        <v>30.683027667984188</v>
+        <v>30.737293294940358</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>6</v>
+        <v>6.0199999999999996</v>
       </c>
       <c r="B14" s="0">
-        <v>1.3</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="C14" s="0">
-        <v>32.036745893719797</v>
+        <v>32.083498148909918</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>6.5</v>
+        <v>6.5199999999999996</v>
       </c>
       <c r="B15" s="0">
-        <v>1.325</v>
+        <v>1.3260000000000001</v>
       </c>
       <c r="C15" s="0">
-        <v>33.298399999999994</v>
+        <v>33.347912793089272</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>7</v>
+        <v>7.0199999999999996</v>
       </c>
       <c r="B16" s="0">
-        <v>1.3500000000000001</v>
+        <v>1.351</v>
       </c>
       <c r="C16" s="0">
-        <v>34.488836714975832</v>
+        <v>34.536858905800088</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>7.5</v>
+        <v>7.5199999999999996</v>
       </c>
       <c r="B17" s="0">
-        <v>1.375</v>
+        <v>1.3759999999999999</v>
       </c>
       <c r="C17" s="0">
-        <v>35.603967852437414</v>
+        <v>35.650848210612921</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>8</v>
+        <v>8.0199999999999996</v>
       </c>
       <c r="B18" s="0">
-        <v>1.3999999999999999</v>
+        <v>1.401</v>
       </c>
       <c r="C18" s="0">
-        <v>36.647353359683784</v>
+        <v>36.687317976141514</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>8.5</v>
+        <v>8.5199999999999996</v>
       </c>
       <c r="B19" s="0">
-        <v>1.425</v>
+        <v>1.4259999999999999</v>
       </c>
       <c r="C19" s="0">
-        <v>37.630879929732089</v>
+        <v>37.664665569724399</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>9</v>
+        <v>9.0199999999999996</v>
       </c>
       <c r="B20" s="0">
-        <v>1.45</v>
+        <v>1.4510000000000001</v>
       </c>
       <c r="C20" s="0">
-        <v>38.566221343873501</v>
+        <v>38.597174825174825</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9.5</v>
+        <v>9.5199999999999996</v>
       </c>
       <c r="B21" s="0">
-        <v>1.4750000000000001</v>
+        <v>1.476</v>
       </c>
       <c r="C21" s="0">
-        <v>39.448737988581456</v>
+        <v>39.479995063759773</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="B22" s="0">
-        <v>1.5</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="C22" s="0">
-        <v>40.281273956960909</v>
+        <v>40.315149321266979</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10.5</v>
+        <v>10.52</v>
       </c>
       <c r="B23" s="0">
-        <v>1.5249999999999999</v>
+        <v>1.526</v>
       </c>
       <c r="C23" s="0">
-        <v>41.073032586736929</v>
+        <v>41.108311805841218</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>11</v>
+        <v>11.02</v>
       </c>
       <c r="B24" s="0">
-        <v>1.55</v>
+        <v>1.5510000000000002</v>
       </c>
       <c r="C24" s="0">
-        <v>41.83262310057092</v>
+        <v>41.863935006170315</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="B25" s="0">
-        <v>1.5750000000000002</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="C25" s="0">
-        <v>42.555949055775137</v>
+        <v>42.586520773344311</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="B26" s="0">
-        <v>1.6000000000000001</v>
+        <v>1.601</v>
       </c>
       <c r="C26" s="0">
-        <v>43.244375230566526</v>
+        <v>43.274933772110252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>12.5</v>
+        <v>12.52</v>
       </c>
       <c r="B27" s="0">
-        <v>1.625</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="C27" s="0">
-        <v>43.90796925779533</v>
+        <v>43.928212258329914</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>13</v>
+        <v>13.02</v>
       </c>
       <c r="B28" s="0">
-        <v>1.6499999999999999</v>
+        <v>1.651</v>
       </c>
       <c r="C28" s="0">
-        <v>44.541727536231875</v>
+        <v>44.564427807486638</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>13.5</v>
+        <v>13.52</v>
       </c>
       <c r="B29" s="0">
-        <v>1.675</v>
+        <v>1.6760000000000002</v>
       </c>
       <c r="C29" s="0">
-        <v>45.147406587615279</v>
+        <v>45.1688120115179</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>14</v>
+        <v>14.02</v>
       </c>
       <c r="B30" s="0">
-        <v>1.7000000000000002</v>
+        <v>1.7010000000000001</v>
       </c>
       <c r="C30" s="0">
-        <v>45.735257444005256</v>
+        <v>45.758186754422049</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>14.5</v>
+        <v>14.52</v>
       </c>
       <c r="B31" s="0">
-        <v>1.7250000000000001</v>
+        <v>1.726</v>
       </c>
       <c r="C31" s="0">
-        <v>46.290415810276677</v>
+        <v>46.312346359522842</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>15</v>
+        <v>15.02</v>
       </c>
       <c r="B32" s="0">
-        <v>1.75</v>
+        <v>1.7509999999999999</v>
       </c>
       <c r="C32" s="0">
-        <v>46.825735090030719</v>
+        <v>46.845540106951873</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>15.5</v>
+        <v>15.52</v>
       </c>
       <c r="B33" s="0">
-        <v>1.7749999999999999</v>
+        <v>1.776</v>
       </c>
       <c r="C33" s="0">
-        <v>47.364067105841002</v>
+        <v>47.382215549156733</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>16</v>
+        <v>16.02</v>
       </c>
       <c r="B34" s="0">
-        <v>1.8</v>
+        <v>1.8010000000000002</v>
       </c>
       <c r="C34" s="0">
-        <v>47.860903645147104</v>
+        <v>47.881726861373927</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>16.5</v>
+        <v>16.52</v>
       </c>
       <c r="B35" s="0">
-        <v>1.8250000000000002</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="C35" s="0">
-        <v>48.34997364953886</v>
+        <v>48.368761003702183</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>17</v>
+        <v>17.02</v>
       </c>
       <c r="B36" s="0">
-        <v>1.8500000000000001</v>
+        <v>1.851</v>
       </c>
       <c r="C36" s="0">
-        <v>48.82181431708387</v>
+        <v>48.841092554504328</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>17.5</v>
+        <v>17.52</v>
       </c>
       <c r="B37" s="0">
-        <v>1.875</v>
+        <v>1.8759999999999999</v>
       </c>
       <c r="C37" s="0">
-        <v>49.282047430830026</v>
+        <v>49.298273138626087</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>18</v>
+        <v>18.02</v>
       </c>
       <c r="B38" s="0">
-        <v>1.8999999999999999</v>
+        <v>1.901</v>
       </c>
       <c r="C38" s="0">
-        <v>49.732884145805869</v>
+        <v>49.75034635952283</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>18.5</v>
+        <v>18.52</v>
       </c>
       <c r="B39" s="0">
-        <v>1.925</v>
+        <v>1.9260000000000002</v>
       </c>
       <c r="C39" s="0">
-        <v>50.1707063680281</v>
+        <v>50.190135746606337</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>19</v>
+        <v>19.02</v>
       </c>
       <c r="B40" s="0">
-        <v>1.9500000000000002</v>
+        <v>1.9510000000000001</v>
       </c>
       <c r="C40" s="0">
-        <v>50.589560298638553</v>
+        <v>50.611201974496097</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>19.5</v>
+        <v>19.52</v>
       </c>
       <c r="B41" s="0">
-        <v>1.9750000000000001</v>
+        <v>1.976</v>
       </c>
       <c r="C41" s="0">
-        <v>50.995994202898537</v>
+        <v>51.011312217194579</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>20</v>
+        <v>20.001000000000001</v>
       </c>
       <c r="B42" s="0">
-        <v>1.9500000000000002</v>
+        <v>1.9519499999999999</v>
       </c>
       <c r="C42" s="0">
-        <v>50.342010014140442</v>
+        <v>49.937316433566444</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>20.468</v>
+        <v>20.488</v>
       </c>
       <c r="B43" s="0">
-        <v>1.9266000000000001</v>
+        <v>1.9276</v>
       </c>
       <c r="C43" s="0">
-        <v>47.87680744200901</v>
+        <v>47.766858382259464</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>20.968</v>
+        <v>20.988</v>
       </c>
       <c r="B44" s="0">
-        <v>1.9016000000000002</v>
+        <v>1.9026000000000001</v>
       </c>
       <c r="C44" s="0">
-        <v>45.454156905018557</v>
+        <v>45.36792603118807</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>21.468</v>
+        <v>21.488</v>
       </c>
       <c r="B45" s="0">
-        <v>1.8766</v>
+        <v>1.8775999999999999</v>
       </c>
       <c r="C45" s="0">
-        <v>43.413877111031255</v>
+        <v>43.337070416214814</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>21.968</v>
+        <v>21.988</v>
       </c>
       <c r="B46" s="0">
-        <v>1.8516000000000001</v>
+        <v>1.8526</v>
       </c>
       <c r="C46" s="0">
-        <v>41.582316365233361</v>
+        <v>41.511880632736251</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>22.468</v>
+        <v>22.488</v>
       </c>
       <c r="B47" s="0">
-        <v>1.8266</v>
+        <v>1.8275999999999999</v>
       </c>
       <c r="C47" s="0">
-        <v>39.880372499700563</v>
+        <v>39.813406005758949</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>22.968</v>
+        <v>22.988</v>
       </c>
       <c r="B48" s="0">
-        <v>1.8016000000000001</v>
+        <v>1.8026</v>
       </c>
       <c r="C48" s="0">
-        <v>38.259909050984142</v>
+        <v>38.197251785647509</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>23.468</v>
+        <v>23.488</v>
       </c>
       <c r="B49" s="0">
-        <v>1.7766000000000002</v>
+        <v>1.7776000000000001</v>
       </c>
       <c r="C49" s="0">
-        <v>36.711445522417847</v>
+        <v>36.651223589244985</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>23.968</v>
+        <v>23.988</v>
       </c>
       <c r="B50" s="0">
-        <v>1.7516</v>
+        <v>1.7525999999999999</v>
       </c>
       <c r="C50" s="0">
-        <v>35.201559388349899</v>
+        <v>35.14123854754871</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>24.468</v>
+        <v>24.488</v>
       </c>
       <c r="B51" s="0">
-        <v>1.7266000000000001</v>
+        <v>1.7276</v>
       </c>
       <c r="C51" s="0">
-        <v>33.718309019044185</v>
+        <v>33.659063236229017</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>24.968</v>
+        <v>24.988</v>
       </c>
       <c r="B52" s="0">
-        <v>1.7016</v>
+        <v>1.7025999999999999</v>
       </c>
       <c r="C52" s="0">
-        <v>32.268705473709417</v>
+        <v>32.212488313825219</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>25.468</v>
+        <v>25.488</v>
       </c>
       <c r="B53" s="0">
-        <v>1.6766000000000001</v>
+        <v>1.6776</v>
       </c>
       <c r="C53" s="0">
-        <v>30.837776100930238</v>
+        <v>30.780331326427582</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>25.968</v>
+        <v>25.988</v>
       </c>
       <c r="B54" s="0">
-        <v>1.6516000000000002</v>
+        <v>1.6526000000000001</v>
       </c>
       <c r="C54" s="0">
-        <v>29.414579231045625</v>
+        <v>29.356257432407173</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>26.468</v>
+        <v>26.488</v>
       </c>
       <c r="B55" s="0">
-        <v>1.6266</v>
+        <v>1.6275999999999999</v>
       </c>
       <c r="C55" s="0">
-        <v>27.990561584221656</v>
+        <v>27.932594143824094</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>26.968</v>
+        <v>26.988</v>
       </c>
       <c r="B56" s="0">
-        <v>1.6016000000000001</v>
+        <v>1.6026</v>
       </c>
       <c r="C56" s="0">
-        <v>26.57924302311654</v>
+        <v>26.523526420103959</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>27.468</v>
+        <v>27.488</v>
       </c>
       <c r="B57" s="0">
-        <v>1.5766</v>
+        <v>1.5775999999999999</v>
       </c>
       <c r="C57" s="0">
-        <v>25.15214309098894</v>
+        <v>25.09471149171684</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>27.968</v>
+        <v>27.988</v>
       </c>
       <c r="B58" s="0">
-        <v>1.5516000000000001</v>
+        <v>1.5526</v>
       </c>
       <c r="C58" s="0">
-        <v>23.729245977562176</v>
+        <v>23.670617777943988</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>28.468</v>
+        <v>28.488</v>
       </c>
       <c r="B59" s="0">
-        <v>1.5266000000000002</v>
+        <v>1.5276000000000001</v>
       </c>
       <c r="C59" s="0">
-        <v>22.282327144967457</v>
+        <v>22.224561908679558</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>28.968</v>
+        <v>28.988</v>
       </c>
       <c r="B60" s="0">
-        <v>1.5016</v>
+        <v>1.5025999999999999</v>
       </c>
       <c r="C60" s="0">
-        <v>20.833289495747994</v>
+        <v>20.777309749074458</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>29.468</v>
+        <v>29.488</v>
       </c>
       <c r="B61" s="0">
-        <v>1.4766000000000001</v>
+        <v>1.4776</v>
       </c>
       <c r="C61" s="0">
-        <v>19.348493472272128</v>
+        <v>19.289135784002095</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>29.968</v>
+        <v>29.988</v>
       </c>
       <c r="B62" s="0">
-        <v>1.4516</v>
+        <v>1.4525999999999999</v>
       </c>
       <c r="C62" s="0">
-        <v>17.847232642631852</v>
+        <v>17.787497101828656</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>30.468</v>
+        <v>30.488</v>
       </c>
       <c r="B63" s="0">
-        <v>1.4266000000000001</v>
+        <v>1.4276</v>
       </c>
       <c r="C63" s="0">
-        <v>16.324962829879823</v>
+        <v>16.262597883400023</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>30.968</v>
+        <v>30.988</v>
       </c>
       <c r="B64" s="0">
-        <v>1.4016000000000002</v>
+        <v>1.4026000000000001</v>
       </c>
       <c r="C64" s="0">
-        <v>14.770903182017804</v>
+        <v>14.707031150667516</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>31.468</v>
+        <v>31.488</v>
       </c>
       <c r="B65" s="0">
-        <v>1.3766</v>
+        <v>1.3775999999999999</v>
       </c>
       <c r="C65" s="0">
-        <v>13.180108835389468</v>
+        <v>13.113238098799597</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>31.968</v>
+        <v>31.988</v>
       </c>
       <c r="B66" s="0">
-        <v>1.3515999999999999</v>
+        <v>1.3525999999999998</v>
       </c>
       <c r="C66" s="0">
-        <v>11.546834111869684</v>
+        <v>11.481342507759623</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>32.468000000000004</v>
+        <v>32.488</v>
       </c>
       <c r="B67" s="0">
-        <v>1.3266</v>
+        <v>1.3275999999999999</v>
       </c>
       <c r="C67" s="0">
-        <v>9.8692587535433383</v>
+        <v>9.8013110953217932</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>32.968000000000004</v>
+        <v>32.988</v>
       </c>
       <c r="B68" s="0">
-        <v>1.3015999999999999</v>
+        <v>1.3026</v>
       </c>
       <c r="C68" s="0">
-        <v>8.1528367469157974</v>
+        <v>8.081274447477659</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>33.468000000000004</v>
+        <v>33.488</v>
       </c>
       <c r="B69" s="0">
-        <v>1.2765999999999997</v>
+        <v>1.2776000000000001</v>
       </c>
       <c r="C69" s="0">
-        <v>6.3814714736295741</v>
+        <v>6.3103047754384649</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>33.968000000000004</v>
+        <v>33.988</v>
       </c>
       <c r="B70" s="0">
-        <v>1.2515999999999998</v>
+        <v>1.2525999999999999</v>
       </c>
       <c r="C70" s="0">
-        <v>4.557799576795623</v>
+        <v>4.4842073968811933</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>34.468000000000004</v>
+        <v>34.488</v>
       </c>
       <c r="B71" s="0">
-        <v>1.2265999999999999</v>
+        <v>1.2275999999999998</v>
       </c>
       <c r="C71" s="0">
-        <v>2.6691303549327259</v>
+        <v>2.5916985153883543</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>34.968000000000004</v>
+        <v>34.988</v>
       </c>
       <c r="B72" s="0">
-        <v>1.2016</v>
+        <v>1.2025999999999999</v>
       </c>
       <c r="C72" s="0">
-        <v>0.72396891382662121</v>
+        <v>0.74996940559440595</v>
       </c>
     </row>
   </sheetData>
